--- a/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74.92</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005542</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.16</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.72</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.89</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -828,15 +948,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>59.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.07</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>96.99</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>57.89</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>60.72</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -968,15 +1138,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.87</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.97</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9558</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1562,4 +1563,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1151</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0219</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4686</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2607,4 +2608,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,17 +2628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2647,14 +2668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.68</v>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2663,14 +2706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.58</v>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2679,14 +2744,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.05</v>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2695,13 +2782,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3243,7 +3244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3254,17 +3255,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3274,14 +3295,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.78</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3290,14 +3333,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.68</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>181.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3306,14 +3371,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.58</v>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3322,14 +3409,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.05</v>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5626</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3338,13 +3447,4041 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3613</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3586</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0334</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9457</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8884</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6660</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5135</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4749</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4712</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>49.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3768</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011677</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011678</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>107</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7364,7 +7365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7375,17 +7376,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7395,14 +7416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>107</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.97</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7411,14 +7454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.78</v>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4721</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -7427,14 +7492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.68</v>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4486</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7443,14 +7530,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.58</v>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7459,14 +7568,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.05</v>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -7475,13 +7606,1475 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>4.83</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>32.97</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="D4" t="n">
-        <v>0.78</v>
+        <v>32.97</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>8.68</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>3.58</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>2.05</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.13</v>
       </c>
     </row>
@@ -600,6 +617,2680 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1232</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4325</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013636</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013637</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014845</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2175,7 +4866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6295,7 +8986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6921,7 +9612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7965,7 +10656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8363,7 +11054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8647,7 +11338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601666-平煤股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>8.800000000000001</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>4.83</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>32.97</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.78</v>
+        <v>32.97</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>8.68</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>3.58</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>2.05</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.13</v>
       </c>
     </row>
@@ -616,7 +633,1485 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>017787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1780</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4754</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3910</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3290,7 +4785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4866,7 +6361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8986,7 +10481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9612,7 +11107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10656,7 +12151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11054,7 +12549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11336,440 +12831,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7716</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3928</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2513</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2113</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1467</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1125</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1041</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005541</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0618</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0553</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005542</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>